--- a/src/main/resources/template/excel/export/FranchiseCharge.xlsx
+++ b/src/main/resources/template/excel/export/FranchiseCharge.xlsx
@@ -35,11 +35,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="F7")</t>
+          <t>jx:area(lastCell="H12")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="F5")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="H11")</t>
         </r>
       </text>
     </comment>
@@ -59,10 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>加盟店费用</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>编号</t>
   </si>
@@ -79,128 +76,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>合计：</t>
-  </si>
-  <si>
-    <t>加盟店：${branchName}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据编号：${formNo}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：${remark}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款日期：${payTime}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>${sumAmount}</t>
-  </si>
-  <si>
-    <r>
-      <t>制单人：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{createUserName}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>制单时间：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{createTime}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>最后修改人：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{updateUserName}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>最后修改时间：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{updateTime}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>审核人：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{auditUserName}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>审核时间：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{auditTime}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -228,7 +104,130 @@
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>${obj.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>amount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.ioString}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加盟店费用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>加盟店：</t>
+  </si>
+  <si>
+    <t>单据编号：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>制单人：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款日期：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>制单时间：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后修改人：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后修改时间：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核时间：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>行号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${branchName}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${createUserName}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${createTime}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${updateUserName}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${updateTime}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${auditUserName}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${auditTime}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${remark}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${payTime}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${formNo}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -256,7 +255,10 @@
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.remark}</t>
   </si>
   <si>
     <r>
@@ -271,52 +273,9 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>amount</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${obj.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>remark</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.ioString}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>rowNo}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -324,9 +283,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,15 +296,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -366,6 +316,47 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -414,44 +405,65 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -729,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -740,109 +752,215 @@
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="23.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B1" s="3"/>
+      <c r="C1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B2" s="3"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="C10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="D2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="D3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="G12" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="19">
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
